--- a/medicine/Enfance/Mary_Hooper_(auteur_jeunesse)/Mary_Hooper_(auteur_jeunesse).xlsx
+++ b/medicine/Enfance/Mary_Hooper_(auteur_jeunesse)/Mary_Hooper_(auteur_jeunesse).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mary Hooper, née le 23 juillet 1948 (75 ans) à Barnes (Angleterre), est une écrivaine britannique auteure de littérature d'enfance et de jeunesse.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,17 +551,19 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En suivant son rêve, Paris, Éditions Hachette, coll. « Heartlines », 1987, 154 p.  (ISBN 2-01-012936-9).
-Et mon cœur dans tout ça ? [« Love Emma XXX »][1], trad. d’Alexis Champon, Paris, Éditions Hachette, coll. « Heartlines », 1988, 151 p.  (ISBN 2-01-013341-2).
+Et mon cœur dans tout ça ? [« Love Emma XXX »], trad. d’Alexis Champon, Paris, Éditions Hachette, coll. « Heartlines », 1988, 151 p.  (ISBN 2-01-013341-2).
 La Messagère de l’au-delà [« Newes from the Dead »], trad. de Fanny Ladd et Patricia Duez, Paris, Éditions du Panama, 2008, 267 p.  (ISBN 978-2-7557-0306-1), rééd. 2010, Paris, Les Grandes Personnes.
 La Maison du magicien [« At the house of the magician »], trad. de Bee Formentelli, Paris, Éditions Gallimard Jeunesse, 2009, 283 p.  (ISBN 978-2-07-061865-1).
 Espionne de Sa Majesté [« By royal command »], trad. de Bee Formentelli, Paris, Éditions Gallimard Jeunesse, 2010, 299 p.  (ISBN 978-2-07-063264-0).
 La Trahison [« The Betrayal »], trad. de Bee Formentelli, Paris, Éditions Gallimard Jeunesse, 2011, 348 p.  (ISBN 978-2-07-063813-0).
 Waterloo Necropolis [« Fallen Grace »], trad. de Fanny Ladd et Patricia Duez, Paris, Éditions des Grandes Personnes, 2011, 313 p.  (ISBN 978-2-36193-045-5).
-Velvet [« Velvet »], trad. de Fanny Ladd et Patricia Duez, Paris, Éditions des Grandes Personnes, 2012, 324 p.  (ISBN 978-2-36193-141-4)[2].
-L’Infortune de Kitty Grey [« The Disgrace of Kitty Grey »], trad. de Fanny Ladd et Patricia Duez, Paris, Éditions des Grandes Personnes, 2014, 281 p.  (ISBN 978-2-36193-237-4)[3].</t>
+Velvet [« Velvet »], trad. de Fanny Ladd et Patricia Duez, Paris, Éditions des Grandes Personnes, 2012, 324 p.  (ISBN 978-2-36193-141-4).
+L’Infortune de Kitty Grey [« The Disgrace of Kitty Grey »], trad. de Fanny Ladd et Patricia Duez, Paris, Éditions des Grandes Personnes, 2014, 281 p.  (ISBN 978-2-36193-237-4).</t>
         </is>
       </c>
     </row>
